--- a/resources/templates/application-export-template.xlsx
+++ b/resources/templates/application-export-template.xlsx
@@ -45,14 +45,14 @@
     <t>Varis Mike</t>
   </si>
   <si>
-    <t>Lomakkeen tiedot</t>
+    <t>Täytettyjen hakemusten tiedot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +84,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,10 +122,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -444,29 +461,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" customHeight="1">
+    <row r="1" spans="1:34" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,18 +495,16 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,13 +512,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:34" s="4" customFormat="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
